--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H2">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I2">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J2">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q2">
-        <v>0.6791654427961112</v>
+        <v>7.28616127182389</v>
       </c>
       <c r="R2">
-        <v>6.112488985165001</v>
+        <v>65.575451446415</v>
       </c>
       <c r="S2">
-        <v>7.183584274389979E-05</v>
+        <v>0.0004370543213176155</v>
       </c>
       <c r="T2">
-        <v>7.183584274389978E-05</v>
+        <v>0.0004370543213176155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H3">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I3">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J3">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N3">
         <v>1.354768</v>
       </c>
       <c r="O3">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P3">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q3">
-        <v>0.06859355966755556</v>
+        <v>0.3694471904871111</v>
       </c>
       <c r="R3">
-        <v>0.6173420370080002</v>
+        <v>3.325024714384</v>
       </c>
       <c r="S3">
-        <v>7.255192704205478E-06</v>
+        <v>2.216098231663557E-05</v>
       </c>
       <c r="T3">
-        <v>7.255192704205477E-06</v>
+        <v>2.216098231663557E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H4">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I4">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J4">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N4">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O4">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P4">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q4">
-        <v>0.9437134776447779</v>
+        <v>6.366202130886222</v>
       </c>
       <c r="R4">
-        <v>8.493421298803002</v>
+        <v>57.295819177976</v>
       </c>
       <c r="S4">
-        <v>9.981728854796971E-05</v>
+        <v>0.0003818713377159087</v>
       </c>
       <c r="T4">
-        <v>9.981728854796969E-05</v>
+        <v>0.0003818713377159087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H5">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I5">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J5">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N5">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O5">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P5">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q5">
-        <v>0.5892222662853334</v>
+        <v>3.184526203191778</v>
       </c>
       <c r="R5">
-        <v>5.303000396568001</v>
+        <v>28.660735828726</v>
       </c>
       <c r="S5">
-        <v>6.232248491297916E-05</v>
+        <v>0.0001910211545599984</v>
       </c>
       <c r="T5">
-        <v>6.232248491297915E-05</v>
+        <v>0.0001910211545599983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H6">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I6">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J6">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N6">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O6">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P6">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q6">
-        <v>4.898511562101223</v>
+        <v>35.58393175069578</v>
       </c>
       <c r="R6">
-        <v>44.08660405891101</v>
+        <v>320.255385756262</v>
       </c>
       <c r="S6">
-        <v>0.0005181192741573529</v>
+        <v>0.002134472537858011</v>
       </c>
       <c r="T6">
-        <v>0.0005181192741573529</v>
+        <v>0.002134472537858011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H7">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I7">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J7">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N7">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O7">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P7">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q7">
-        <v>0.9833550918212224</v>
+        <v>5.732880023607</v>
       </c>
       <c r="R7">
-        <v>8.850195826391001</v>
+        <v>51.595920212463</v>
       </c>
       <c r="S7">
-        <v>0.0001040102120724199</v>
+        <v>0.0003438820380770504</v>
       </c>
       <c r="T7">
-        <v>0.0001040102120724198</v>
+        <v>0.0003438820380770504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N8">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O8">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P8">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q8">
-        <v>10.25898999891611</v>
+        <v>20.43425360297945</v>
       </c>
       <c r="R8">
-        <v>92.33090999024502</v>
+        <v>183.908282426815</v>
       </c>
       <c r="S8">
-        <v>0.001085101134179199</v>
+        <v>0.001225731699711146</v>
       </c>
       <c r="T8">
-        <v>0.001085101134179199</v>
+        <v>0.001225731699711146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N9">
         <v>1.354768</v>
       </c>
       <c r="O9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q9">
         <v>1.036125512691556</v>
       </c>
       <c r="R9">
-        <v>9.325129614224002</v>
+        <v>9.325129614224</v>
       </c>
       <c r="S9">
-        <v>0.0001095917794141915</v>
+        <v>6.2151126753185E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001095917794141915</v>
+        <v>6.2151126753185E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.883193</v>
       </c>
       <c r="I10">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J10">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N10">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O10">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P10">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q10">
-        <v>14.25506440542878</v>
+        <v>17.85420113241511</v>
       </c>
       <c r="R10">
-        <v>128.295579648859</v>
+        <v>160.687810191736</v>
       </c>
       <c r="S10">
-        <v>0.001507768947602304</v>
+        <v>0.001070969399040293</v>
       </c>
       <c r="T10">
-        <v>0.001507768947602303</v>
+        <v>0.001070969399040293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.883193</v>
       </c>
       <c r="I11">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J11">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N11">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O11">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P11">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q11">
-        <v>8.900372362989334</v>
+        <v>8.931097406942889</v>
       </c>
       <c r="R11">
-        <v>80.103351266904</v>
+        <v>80.379876662486</v>
       </c>
       <c r="S11">
-        <v>0.0009413991188915573</v>
+        <v>0.0005357244466860172</v>
       </c>
       <c r="T11">
-        <v>0.0009413991188915572</v>
+        <v>0.0005357244466860171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.883193</v>
       </c>
       <c r="I12">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J12">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N12">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O12">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P12">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q12">
-        <v>73.99343069970924</v>
+        <v>99.79618326548689</v>
       </c>
       <c r="R12">
-        <v>665.9408762973831</v>
+        <v>898.165649389382</v>
       </c>
       <c r="S12">
-        <v>0.007826341148840905</v>
+        <v>0.005986191016091467</v>
       </c>
       <c r="T12">
-        <v>0.007826341148840904</v>
+        <v>0.005986191016091467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.883193</v>
       </c>
       <c r="I13">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J13">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N13">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O13">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P13">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q13">
-        <v>14.85386242686922</v>
+        <v>16.078030653927</v>
       </c>
       <c r="R13">
-        <v>133.684761841823</v>
+        <v>144.702275885343</v>
       </c>
       <c r="S13">
-        <v>0.001571104267383094</v>
+        <v>0.0009644272907806326</v>
       </c>
       <c r="T13">
-        <v>0.001571104267383094</v>
+        <v>0.0009644272907806326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H14">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I14">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J14">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N14">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O14">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P14">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q14">
-        <v>161.6601549364744</v>
+        <v>668.3048555826113</v>
       </c>
       <c r="R14">
-        <v>1454.94139442827</v>
+        <v>6014.743700243501</v>
       </c>
       <c r="S14">
-        <v>0.0170989169003661</v>
+        <v>0.04008771068785438</v>
       </c>
       <c r="T14">
-        <v>0.0170989169003661</v>
+        <v>0.04008771068785438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H15">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I15">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J15">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N15">
         <v>1.354768</v>
       </c>
       <c r="O15">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P15">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q15">
-        <v>16.32716387607822</v>
+        <v>33.88661629528889</v>
       </c>
       <c r="R15">
-        <v>146.944474884704</v>
+        <v>304.9795466576</v>
       </c>
       <c r="S15">
-        <v>0.001726936476371839</v>
+        <v>0.002032660482545233</v>
       </c>
       <c r="T15">
-        <v>0.001726936476371839</v>
+        <v>0.002032660482545233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H16">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q16">
-        <v>224.6299022276571</v>
+        <v>583.9239123273778</v>
       </c>
       <c r="R16">
-        <v>2021.669120048914</v>
+        <v>5255.3152109464</v>
       </c>
       <c r="S16">
-        <v>0.02375927471452314</v>
+        <v>0.03502619001726886</v>
       </c>
       <c r="T16">
-        <v>0.02375927471452314</v>
+        <v>0.03502619001726886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H17">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I17">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J17">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N17">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P17">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q17">
-        <v>140.2511919151093</v>
+        <v>292.0926733468223</v>
       </c>
       <c r="R17">
-        <v>1262.260727235984</v>
+        <v>2628.8340601214</v>
       </c>
       <c r="S17">
-        <v>0.01483447468348722</v>
+        <v>0.01752093597009926</v>
       </c>
       <c r="T17">
-        <v>0.01483447468348722</v>
+        <v>0.01752093597009926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H18">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I18">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J18">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N18">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O18">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P18">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q18">
-        <v>1165.981200143491</v>
+        <v>3263.846829972422</v>
       </c>
       <c r="R18">
-        <v>10493.83080129142</v>
+        <v>29374.6214697518</v>
       </c>
       <c r="S18">
-        <v>0.1233267137253276</v>
+        <v>0.1957791363573769</v>
       </c>
       <c r="T18">
-        <v>0.1233267137253276</v>
+        <v>0.1957791363573769</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H19">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I19">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J19">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N19">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O19">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P19">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q19">
-        <v>234.0657025288509</v>
+        <v>525.8340315723</v>
       </c>
       <c r="R19">
-        <v>2106.591322759658</v>
+        <v>4732.5062841507</v>
       </c>
       <c r="S19">
-        <v>0.02475730645154555</v>
+        <v>0.03154171685483549</v>
       </c>
       <c r="T19">
-        <v>0.02475730645154555</v>
+        <v>0.03154171685483549</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H20">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I20">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J20">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N20">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O20">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P20">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q20">
-        <v>4.009192687130001</v>
+        <v>10.44334750689889</v>
       </c>
       <c r="R20">
-        <v>36.08273418417001</v>
+        <v>93.99012756209001</v>
       </c>
       <c r="S20">
-        <v>0.0004240553438893443</v>
+        <v>0.0006264355106388082</v>
       </c>
       <c r="T20">
-        <v>0.0004240553438893441</v>
+        <v>0.0006264355106388081</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H21">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I21">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J21">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N21">
         <v>1.354768</v>
       </c>
       <c r="O21">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P21">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q21">
-        <v>0.4049157693760001</v>
+        <v>0.5295333512071111</v>
       </c>
       <c r="R21">
-        <v>3.644241924384001</v>
+        <v>4.765800160864</v>
       </c>
       <c r="S21">
-        <v>4.282824728782871E-05</v>
+        <v>3.176361746504866E-05</v>
       </c>
       <c r="T21">
-        <v>4.28282472878287E-05</v>
+        <v>3.176361746504866E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H22">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I22">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J22">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N22">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O22">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P22">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q22">
-        <v>5.570850539366001</v>
+        <v>9.124758383966222</v>
       </c>
       <c r="R22">
-        <v>50.13765485429401</v>
+        <v>82.122825455696</v>
       </c>
       <c r="S22">
-        <v>0.0005892330764770717</v>
+        <v>0.0005473410392538964</v>
       </c>
       <c r="T22">
-        <v>0.0005892330764770716</v>
+        <v>0.0005473410392538964</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H23">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I23">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J23">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q23">
-        <v>3.478247643696</v>
+        <v>4.564421860021778</v>
       </c>
       <c r="R23">
-        <v>31.304228793264</v>
+        <v>41.079796740196</v>
       </c>
       <c r="S23">
-        <v>0.000367896884930136</v>
+        <v>0.0002737930473696114</v>
       </c>
       <c r="T23">
-        <v>0.0003678968849301359</v>
+        <v>0.0002737930473696114</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H24">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I24">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J24">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N24">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O24">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P24">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q24">
-        <v>28.916484106942</v>
+        <v>51.00290140040578</v>
       </c>
       <c r="R24">
-        <v>260.2483569624781</v>
+        <v>459.026112603652</v>
       </c>
       <c r="S24">
-        <v>0.00305851840232154</v>
+        <v>0.003059366602683454</v>
       </c>
       <c r="T24">
-        <v>0.003058518402321539</v>
+        <v>0.003059366602683454</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H25">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I25">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J25">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N25">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O25">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P25">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q25">
-        <v>5.804859603502001</v>
+        <v>8.217009762522</v>
       </c>
       <c r="R25">
-        <v>52.24373643151801</v>
+        <v>73.953087862698</v>
       </c>
       <c r="S25">
-        <v>0.0006139843922429527</v>
+        <v>0.0004928904935040362</v>
       </c>
       <c r="T25">
-        <v>0.0006139843922429526</v>
+        <v>0.0004928904935040362</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H26">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I26">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J26">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N26">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O26">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P26">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q26">
-        <v>503.7531478593434</v>
+        <v>1027.16249982095</v>
       </c>
       <c r="R26">
-        <v>4533.77833073409</v>
+        <v>9244.462498388546</v>
       </c>
       <c r="S26">
-        <v>0.05328235159077722</v>
+        <v>0.06161348788396696</v>
       </c>
       <c r="T26">
-        <v>0.0532823515907772</v>
+        <v>0.06161348788396695</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H27">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I27">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J27">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N27">
         <v>1.354768</v>
       </c>
       <c r="O27">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P27">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q27">
-        <v>50.87747318701867</v>
+        <v>52.08261052360356</v>
       </c>
       <c r="R27">
-        <v>457.897258683168</v>
+        <v>468.743494712432</v>
       </c>
       <c r="S27">
-        <v>0.005381348833095514</v>
+        <v>0.003124132056048381</v>
       </c>
       <c r="T27">
-        <v>0.005381348833095513</v>
+        <v>0.003124132056048381</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H28">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I28">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J28">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N28">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O28">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P28">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q28">
-        <v>699.9747117339153</v>
+        <v>897.4717757639831</v>
       </c>
       <c r="R28">
-        <v>6299.772405605238</v>
+        <v>8077.245981875848</v>
       </c>
       <c r="S28">
-        <v>0.07403685486382941</v>
+        <v>0.05383409771275285</v>
       </c>
       <c r="T28">
-        <v>0.0740368548638294</v>
+        <v>0.05383409771275285</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H29">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I29">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J29">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N29">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O29">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P29">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q29">
-        <v>437.040156530992</v>
+        <v>448.9367958770109</v>
       </c>
       <c r="R29">
-        <v>3933.361408778928</v>
+        <v>4040.431162893098</v>
       </c>
       <c r="S29">
-        <v>0.04622606802265506</v>
+        <v>0.02692910015528879</v>
       </c>
       <c r="T29">
-        <v>0.04622606802265505</v>
+        <v>0.02692910015528879</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H30">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I30">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J30">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q30">
-        <v>3633.342428429001</v>
+        <v>5016.424826039202</v>
       </c>
       <c r="R30">
-        <v>32700.08185586101</v>
+        <v>45147.82343435283</v>
       </c>
       <c r="S30">
-        <v>0.3843013776566948</v>
+        <v>0.3009060691895146</v>
       </c>
       <c r="T30">
-        <v>0.3843013776566947</v>
+        <v>0.3009060691895146</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H31">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I31">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J31">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N31">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O31">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P31">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q31">
-        <v>729.3778389681207</v>
+        <v>808.189546804761</v>
       </c>
       <c r="R31">
-        <v>6564.400550713086</v>
+        <v>7273.705921242849</v>
       </c>
       <c r="S31">
-        <v>0.07714684587791779</v>
+        <v>0.04847857749741058</v>
       </c>
       <c r="T31">
-        <v>0.07714684587791777</v>
+        <v>0.04847857749741058</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H32">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I32">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J32">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="N32">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="O32">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="P32">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="Q32">
-        <v>106.2929010398795</v>
+        <v>341.9248916625845</v>
       </c>
       <c r="R32">
-        <v>956.636109358915</v>
+        <v>3077.32402496326</v>
       </c>
       <c r="S32">
-        <v>0.01124268056463223</v>
+        <v>0.02051008012203687</v>
       </c>
       <c r="T32">
-        <v>0.01124268056463223</v>
+        <v>0.02051008012203687</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H33">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I33">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J33">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N33">
         <v>1.354768</v>
       </c>
       <c r="O33">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="P33">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="Q33">
-        <v>10.73524651033422</v>
+        <v>17.33741347049956</v>
       </c>
       <c r="R33">
-        <v>96.617218593008</v>
+        <v>156.036721234496</v>
       </c>
       <c r="S33">
-        <v>0.00113547514572952</v>
+        <v>0.001039970321142134</v>
       </c>
       <c r="T33">
-        <v>0.00113547514572952</v>
+        <v>0.001039970321142134</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H34">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I34">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J34">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="N34">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="O34">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="P34">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="Q34">
-        <v>147.6960354112281</v>
+        <v>298.7530597659271</v>
       </c>
       <c r="R34">
-        <v>1329.264318701053</v>
+        <v>2688.777537893344</v>
       </c>
       <c r="S34">
-        <v>0.01562192141287078</v>
+        <v>0.01792045370756299</v>
       </c>
       <c r="T34">
-        <v>0.01562192141287078</v>
+        <v>0.01792045370756299</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H35">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I35">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J35">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="N35">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="O35">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="P35">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="Q35">
-        <v>92.21632918028531</v>
+        <v>149.4434087307049</v>
       </c>
       <c r="R35">
-        <v>829.9469626225679</v>
+        <v>1344.990678576344</v>
       </c>
       <c r="S35">
-        <v>0.009753790908651049</v>
+        <v>0.008964238525815592</v>
       </c>
       <c r="T35">
-        <v>0.009753790908651047</v>
+        <v>0.00896423852581559</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H36">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I36">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J36">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="N36">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="O36">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="P36">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="Q36">
-        <v>766.6423700380179</v>
+        <v>1669.882336510481</v>
       </c>
       <c r="R36">
-        <v>6899.781330342161</v>
+        <v>15028.94102859433</v>
       </c>
       <c r="S36">
-        <v>0.08108834352367762</v>
+        <v>0.1001665025019642</v>
       </c>
       <c r="T36">
-        <v>0.08108834352367759</v>
+        <v>0.1001665025019642</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H37">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I37">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J37">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="N37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="O37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="P37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="Q37">
-        <v>153.9001528577379</v>
+        <v>269.032527260508</v>
       </c>
       <c r="R37">
-        <v>1385.101375719641</v>
+        <v>2421.292745344572</v>
       </c>
       <c r="S37">
-        <v>0.01627813560924879</v>
+        <v>0.01613769229469317</v>
       </c>
       <c r="T37">
-        <v>0.01627813560924878</v>
+        <v>0.01613769229469317</v>
       </c>
     </row>
   </sheetData>
